--- a/biology/Zoologie/Huîtrier/Huîtrier.xlsx
+++ b/biology/Zoologie/Huîtrier/Huîtrier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hu%C3%AEtrier</t>
+          <t>Huîtrier</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Haematopus
 Haematopus,  l’Huîtrier, est un genre d’oiseaux, le seul de la famille des Hematopodidae (ou Hématopodidés). Il comporte 12 espèces. Ce sont des limicoles de taille moyenne (de 40 à 51 cm), au plumage noir ou blanc et noir, à pattes rosâtres et long bec rouge-orangé. Ils sont cosmopolites, mais absents des régions polaires et faiblement représentés dans les parties tropicales d'Afrique et d'Asie. Ils fréquentent principalement le littoral, mais on les trouve également à l'intérieur des terres en Eurasie et en Nouvelle-Zélande.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hu%C3%AEtrier</t>
+          <t>Huîtrier</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Position systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette famille a temporairement été considérée, dans la phylogénie de Sibley et Monroe, comme une tribu (Haematopodini) appartenant à la famille des charadriidés (dans la sous-famille des Recurvirostrinae avec les avocettes et les échasses).
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Hu%C3%AEtrier</t>
+          <t>Huîtrier</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>D'après la classification de référence (version 5.1, 2015) du Congrès ornithologique international (ordre phylogénique) :
 Haematopus leucopodus – Huîtrier de Garnot
